--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2672975.144124096</v>
+        <v>2671087.562607694</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>111.9019209508891</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>50.04985889944334</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>22.287041390293</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.59270453218362</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>362.1303458094789</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>206.0020113488502</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>10.64007217348914</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>82.27111068693205</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>132.6313220765166</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>249.4237682275164</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>203.3807067317119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>173.2244914873027</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>113.6781710760779</v>
+        <v>155.5905547461162</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>253.1361467692725</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>118.4898845065116</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>163.5962792312089</v>
       </c>
       <c r="U25" t="n">
-        <v>2.654169196206283</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>91.82471917435613</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.780636376275787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
         <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.2891578932899</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>187.8441300157135</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>187.8441300157135</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>180.89862926651</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>166.9752252051009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>166.9752252051009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>76.45514484086243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>478.8522906713811</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1248.680922802168</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2312.888763586079</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.888763586079</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.825876242509</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1629.057220972395</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.591462711315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>865.4521307355029</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.0268521994321</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C7" t="n">
-        <v>645.0268521994321</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D7" t="n">
-        <v>494.9102127870964</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870964</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>645.0268521994321</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>645.0268521994321</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>645.0268521994321</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>645.0268521994321</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.0268521994321</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>1855.790121687965</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>1497.524423081215</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5002,10 +5002,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1293.481213253143</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1004.352574466701</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1004.352574466701</v>
+        <v>955.1031435655734</v>
       </c>
       <c r="W13" t="n">
-        <v>714.9354044297402</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="X13" t="n">
-        <v>486.9458535317228</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y13" t="n">
-        <v>266.1532743881928</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,7 +5270,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5358,19 +5358,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402496</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765182</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706313</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>531.3977182706313</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X16" t="n">
-        <v>416.5712828402496</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.5712828402496</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,31 +5738,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531122</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
         <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387938</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X22" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,13 +6008,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1133.747493573244</v>
       </c>
       <c r="U25" t="n">
-        <v>1185.240178049213</v>
+        <v>1133.747493573244</v>
       </c>
       <c r="V25" t="n">
-        <v>1185.240178049213</v>
+        <v>1133.747493573244</v>
       </c>
       <c r="W25" t="n">
-        <v>895.8230080122524</v>
+        <v>844.3303235362832</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>616.3407726382659</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,49 +6209,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.7453191938782</v>
+        <v>730.4517433652472</v>
       </c>
       <c r="C31" t="n">
-        <v>487.5700015473422</v>
+        <v>637.6995017749886</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473422</v>
+        <v>543.3437276440237</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463199</v>
+        <v>451.1914993430014</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,7 +6637,7 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818942</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652478</v>
+        <v>730.4517433652472</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.6329187427471</v>
+        <v>730.4517433652472</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,52 +7567,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>221.0467526719079</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9006,22 +9006,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>18.16685432667731</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.2985068492883</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>112.0314843129593</v>
+        <v>70.11910064292096</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>33.3868515673185</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709162</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518773</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>57.9512818271804</v>
       </c>
       <c r="U25" t="n">
-        <v>283.5831832023711</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.74113413690344</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>20.21884529571456</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.6007603472619</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>827902.1506214037</v>
+        <v>827902.1506214036</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179055</v>
+        <v>610233.2060179056</v>
       </c>
       <c r="L2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
     </row>
     <row r="3">
@@ -26393,7 +26393,7 @@
         <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563566</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-213820.5881309641</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835806</v>
+        <v>376147.2910835809</v>
       </c>
       <c r="D6" t="n">
         <v>376147.2910835807</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.442440489</v>
+        <v>-45746.90156646105</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364071</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.5940364071</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.5940364071</v>
+        <v>479413.134910435</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.594036407</v>
+        <v>479413.1349104352</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438141</v>
+        <v>302989.9157178422</v>
       </c>
       <c r="K6" t="n">
-        <v>436232.1000492014</v>
+        <v>436213.6063112672</v>
       </c>
       <c r="L6" t="n">
         <v>470258.8579145606</v>
       </c>
       <c r="M6" t="n">
-        <v>345800.7494815903</v>
+        <v>345800.7494815902</v>
       </c>
       <c r="N6" t="n">
-        <v>480601.7647154275</v>
+        <v>480601.7647154277</v>
       </c>
       <c r="O6" t="n">
-        <v>480601.7647154276</v>
+        <v>480601.7647154277</v>
       </c>
       <c r="P6" t="n">
-        <v>436439.1594125819</v>
+        <v>436439.1594125816</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26750,13 +26750,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>40.02939529397216</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>277.7023995706916</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.8838474515022</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5528344178353</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>19.80002426278287</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44630900880762</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.7809758494421</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>204.0107635550457</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>249.2990479957452</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.71246049576317</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.64757550068851e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.790165203036685e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
